--- a/fft_bins.xlsx
+++ b/fft_bins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/bruno_pollarolo_uchile_cl/Documents/Escritorio/Universidad/uchile-ee-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{B2927232-2800-4DFE-9D2E-776C600784F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D73FAFB-2FCD-4D21-83EA-2C1935EA4838}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{B2927232-2800-4DFE-9D2E-776C600784F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18CEC16-6C19-4424-930C-52F628035842}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0617D8-6423-4FFD-B40B-AE57EE11F0B1}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>central bin</t>
   </si>
   <si>
-    <t>fifo we start</t>
-  </si>
-  <si>
-    <t>fifo we end</t>
+    <t>din_valid start</t>
+  </si>
+  <si>
+    <t>din_valid end</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A4:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,11 +503,11 @@
         <v>501.6</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:F12" si="0">C5/0.3</f>
+        <f>C5/0.3</f>
         <v>1000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E5:F12" si="0">D5/0.3</f>
         <v>1672.0000000000002</v>
       </c>
       <c r="G5">
